--- a/ExcelToXML_DB_Converter/Excel/2024/Bring_despesas_2024.12_sent_client.xlsx
+++ b/ExcelToXML_DB_Converter/Excel/2024/Bring_despesas_2024.12_sent_client.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10315"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/fernandojesus/Desktop/TaniaAlmeida-FichRH/AON/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Documents\BringGlobal\ExcelToXML_DB_Converter\Excel\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83B62AF-AED9-E546-894A-FEDDEC27F823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E344ED5-ADC2-42EE-82C7-8459B492CA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="920" yWindow="-20560" windowWidth="34420" windowHeight="18620" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tecnologia" sheetId="1" r:id="rId1"/>
@@ -90,7 +90,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="64">
   <si>
     <t>Empresa</t>
   </si>
@@ -279,6 +279,9 @@
   </si>
   <si>
     <t>Fatura aprovada pelo valor sem IVA. O reembolso será efetuado pelo valor total da fatura</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Empresaa</t>
   </si>
 </sst>
 </file>
@@ -286,13 +289,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
-    <numFmt numFmtId="166" formatCode="[$-10409]dd/mm/yyyy"/>
-    <numFmt numFmtId="167" formatCode="[$-10409]#,##0.00;\-#,##0.00"/>
-    <numFmt numFmtId="168" formatCode="#,##0.00\ &quot;€&quot;"/>
+    <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00_ ;\-#,##0.00\ "/>
+    <numFmt numFmtId="165" formatCode="[$-10409]dd/mm/yyyy"/>
+    <numFmt numFmtId="166" formatCode="[$-10409]#,##0.00;\-#,##0.00"/>
+    <numFmt numFmtId="167" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -356,6 +359,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -437,12 +446,12 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
@@ -452,29 +461,29 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="168" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="4" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -487,13 +496,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -506,13 +515,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1" readingOrder="1"/>
-    </xf>
     <xf numFmtId="167" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -521,18 +530,19 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="167" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="14" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="3" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Currency" xfId="1" builtinId="4"/>
+    <cellStyle name="Moeda" xfId="1" builtinId="4"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -814,37 +824,37 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:P13"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="E4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="7.5" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="18.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.83203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.33203125" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="27.83203125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="13.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="21.5" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="26.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="16.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="15.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="17" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" style="17" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.28515625" style="17" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="13.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="21.42578125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="16.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="14" style="1" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="77.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="7.5" style="1"/>
+    <col min="15" max="15" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="77.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="7.42578125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="13">
         <v>45627</v>
       </c>
@@ -871,14 +881,14 @@
       <c r="O1" s="2"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="J2" s="10"/>
       <c r="L2" s="10"/>
       <c r="P2" s="11"/>
     </row>
-    <row r="3" spans="1:16" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:16" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="B3" s="7" t="s">
         <v>1</v>
@@ -926,7 +936,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" ht="12" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" s="29" t="s">
         <v>41</v>
       </c>
@@ -971,7 +981,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="12" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" s="29" t="s">
         <v>41</v>
       </c>
@@ -1016,7 +1026,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="6" spans="1:16" ht="12" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" s="29" t="s">
         <v>33</v>
       </c>
@@ -1061,7 +1071,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="7" spans="1:16" ht="12" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" s="29" t="s">
         <v>33</v>
       </c>
@@ -1106,7 +1116,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:16" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="29" t="s">
         <v>33</v>
       </c>
@@ -1149,7 +1159,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="12" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" s="29" t="s">
         <v>33</v>
       </c>
@@ -1194,7 +1204,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="10" spans="1:16" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:16" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="29" t="s">
         <v>33</v>
       </c>
@@ -1238,7 +1248,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="12" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>33</v>
       </c>
@@ -1283,7 +1293,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="12" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" s="29" t="s">
         <v>33</v>
       </c>
@@ -1328,7 +1338,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="13" spans="1:16" ht="12" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" s="29" t="s">
         <v>33</v>
       </c>
@@ -1372,6 +1382,9 @@
       <c r="P13" s="18" t="s">
         <v>62</v>
       </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34"/>
     </row>
   </sheetData>
   <autoFilter ref="A3:P13" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
@@ -1393,34 +1406,34 @@
       <selection pane="bottomRight" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="24" defaultRowHeight="11" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="24" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.33203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.28515625" style="18" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14" style="20" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.6640625" style="20" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="19.33203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="7.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" style="18" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="11.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="34.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="8.5" style="18" customWidth="1"/>
-    <col min="18" max="18" width="3.1640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="6.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="60.5" style="18" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.6640625" style="18" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="7.83203125" style="18" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="18" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" style="18" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="34.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="8.42578125" style="18" customWidth="1"/>
+    <col min="18" max="18" width="3.140625" style="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="6.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="60.42578125" style="18" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="3.7109375" style="18" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="7.85546875" style="18" bestFit="1" customWidth="1"/>
     <col min="23" max="16384" width="24" style="18"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="13">
         <v>45627</v>
       </c>
@@ -1445,7 +1458,7 @@
       <c r="O1" s="2"/>
       <c r="P1" s="11"/>
     </row>
-    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="D2" s="17"/>
       <c r="E2" s="17"/>
       <c r="J2" s="10"/>
@@ -1467,7 +1480,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:22" s="1" customFormat="1" ht="24" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:22" s="1" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
@@ -1517,14 +1530,14 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
       <c r="R4" s="21"/>
       <c r="S4" s="21"/>
       <c r="T4" s="21"/>
       <c r="U4" s="21"/>
       <c r="V4" s="22"/>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
       <c r="B5" s="23" t="s">
         <v>40</v>
       </c>
@@ -1534,28 +1547,28 @@
       <c r="U5" s="21"/>
       <c r="V5" s="22"/>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
       <c r="R6" s="21"/>
       <c r="S6" s="21"/>
       <c r="T6" s="21"/>
       <c r="U6" s="21"/>
       <c r="V6" s="22"/>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
       <c r="R7" s="21"/>
       <c r="S7" s="21"/>
       <c r="T7" s="21"/>
       <c r="U7" s="21"/>
       <c r="V7" s="22"/>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
       <c r="R8" s="21"/>
       <c r="S8" s="21"/>
       <c r="T8" s="21"/>
       <c r="U8" s="21"/>
       <c r="V8" s="22"/>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
       <c r="R9" s="21"/>
       <c r="S9" s="21"/>
       <c r="T9" s="21"/>

--- a/ExcelToXML_DB_Converter/Excel/2024/Bring_despesas_2024.12_sent_client.xlsx
+++ b/ExcelToXML_DB_Converter/Excel/2024/Bring_despesas_2024.12_sent_client.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tiago\Documents\BringGlobal\ExcelToXML_DB_Converter\Excel\2024\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E344ED5-ADC2-42EE-82C7-8459B492CA41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5FF875C-D5FF-4A38-9B52-3DD7BB1BD57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="773" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,7 +281,7 @@
     <t>Fatura aprovada pelo valor sem IVA. O reembolso será efetuado pelo valor total da fatura</t>
   </si>
   <si>
-    <t xml:space="preserve"> Empresaa</t>
+    <t xml:space="preserve"> Empresa </t>
   </si>
 </sst>
 </file>
@@ -830,7 +830,7 @@
       <pane xSplit="4" ySplit="3" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="E1" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A19" sqref="A19"/>
+      <selection pane="bottomRight" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
